--- a/1yrQR_alpha01.xlsx
+++ b/1yrQR_alpha01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrik/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6FD791B-9531-0149-94A7-BA20BF1B7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974D274B-55B2-4447-8E06-991E1A882D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <t>yyyymm</t>
   </si>
@@ -1139,6 +1139,9 @@
   </si>
   <si>
     <t>0.95</t>
+  </si>
+  <si>
+    <t>201901</t>
   </si>
 </sst>
 </file>
@@ -1502,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V349"/>
+  <dimension ref="A1:V350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25239,6 +25242,74 @@
         <v>1.945971118953679E-2</v>
       </c>
     </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>369</v>
+      </c>
+      <c r="C350">
+        <v>1.450506762840546E-2</v>
+      </c>
+      <c r="D350">
+        <v>-1.980933386469241E-2</v>
+      </c>
+      <c r="E350">
+        <v>-9.8407183487179833E-3</v>
+      </c>
+      <c r="F350">
+        <v>-4.594069909126218E-3</v>
+      </c>
+      <c r="G350">
+        <v>-1.562513196455437E-3</v>
+      </c>
+      <c r="H350">
+        <v>3.1665656052330682E-4</v>
+      </c>
+      <c r="I350">
+        <v>1.1076641520679979E-3</v>
+      </c>
+      <c r="J350">
+        <v>2.5742572604951358E-3</v>
+      </c>
+      <c r="K350">
+        <v>4.396277087552948E-3</v>
+      </c>
+      <c r="L350">
+        <v>5.4194693868268029E-3</v>
+      </c>
+      <c r="M350">
+        <v>6.4217935344347901E-3</v>
+      </c>
+      <c r="N350">
+        <v>7.4603497131719709E-3</v>
+      </c>
+      <c r="O350">
+        <v>7.9163646312893528E-3</v>
+      </c>
+      <c r="P350">
+        <v>9.1638602473565547E-3</v>
+      </c>
+      <c r="Q350">
+        <v>1.0299686748923309E-2</v>
+      </c>
+      <c r="R350">
+        <v>1.2308498535097511E-2</v>
+      </c>
+      <c r="S350">
+        <v>1.465951481573695E-2</v>
+      </c>
+      <c r="T350">
+        <v>1.562531713932435E-2</v>
+      </c>
+      <c r="U350">
+        <v>1.7658666225993269E-2</v>
+      </c>
+      <c r="V350">
+        <v>1.9426561791158758E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
